--- a/Torch runner 2/Torch runner 2/Stage03.xlsx
+++ b/Torch runner 2/Torch runner 2/Stage03.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Source\Repos\kanataD\Torch runner 2\Torch runner 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\riri\Source\Repos\kanataD\Torch runner 2\Torch runner 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11610"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11616"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -90,11 +90,46 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="15">
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -108,14 +143,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -143,7 +171,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -157,84 +192,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -516,31 +474,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:GR10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z10" sqref="Z10"/>
+    <sheetView tabSelected="1" topLeftCell="AV1" workbookViewId="0">
+      <selection activeCell="CH6" sqref="CH6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="27" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="27" width="2.44140625" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="3" bestFit="1" customWidth="1"/>
-    <col min="29" max="31" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="29" max="31" width="2.44140625" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="3" bestFit="1" customWidth="1"/>
-    <col min="33" max="34" width="2.5" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="36" max="58" width="2.5" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="60" max="61" width="2.5" bestFit="1" customWidth="1"/>
-    <col min="62" max="64" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="65" max="137" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="2.44140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="36" max="58" width="2.44140625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="60" max="61" width="2.44140625" bestFit="1" customWidth="1"/>
+    <col min="62" max="64" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="65" max="137" width="2.44140625" bestFit="1" customWidth="1"/>
     <col min="138" max="182" width="3" bestFit="1" customWidth="1"/>
-    <col min="183" max="184" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="183" max="184" width="3.44140625" bestFit="1" customWidth="1"/>
     <col min="185" max="186" width="3" bestFit="1" customWidth="1"/>
-    <col min="187" max="188" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="187" max="188" width="3.44140625" bestFit="1" customWidth="1"/>
     <col min="189" max="200" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:200" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:200" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
         <v>0</v>
       </c>
@@ -1142,7 +1100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:200" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:200" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1744,7 +1702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:200" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:200" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -2346,7 +2304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:200" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:200" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -2948,7 +2906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:200" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:200" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>0</v>
       </c>
@@ -3550,7 +3508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:200" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:200" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>0</v>
       </c>
@@ -3621,7 +3579,7 @@
         <v>0</v>
       </c>
       <c r="X6" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y6" s="1">
         <v>0</v>
@@ -3633,7 +3591,7 @@
         <v>0</v>
       </c>
       <c r="AB6" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AC6" s="1">
         <v>0</v>
@@ -3651,7 +3609,7 @@
         <v>0</v>
       </c>
       <c r="AH6" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AI6" s="1">
         <v>0</v>
@@ -3663,13 +3621,13 @@
         <v>0</v>
       </c>
       <c r="AL6" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM6" s="1">
         <v>0</v>
       </c>
       <c r="AN6" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO6" s="1">
         <v>0</v>
@@ -3681,7 +3639,7 @@
         <v>0</v>
       </c>
       <c r="AR6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS6" s="1">
         <v>0</v>
@@ -3690,10 +3648,10 @@
         <v>0</v>
       </c>
       <c r="AU6" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AV6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW6" s="1">
         <v>0</v>
@@ -3738,7 +3696,7 @@
         <v>0</v>
       </c>
       <c r="BK6" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BL6" s="1">
         <v>0</v>
@@ -3759,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="BR6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS6" s="1">
         <v>0</v>
@@ -3771,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="BV6" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BW6" s="1">
         <v>0</v>
@@ -3795,7 +3753,7 @@
         <v>0</v>
       </c>
       <c r="CD6" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="CE6" s="1">
         <v>0</v>
@@ -3804,13 +3762,13 @@
         <v>0</v>
       </c>
       <c r="CG6" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="CH6" s="1">
         <v>0</v>
       </c>
       <c r="CI6" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="CJ6" s="1">
         <v>0</v>
@@ -3825,7 +3783,7 @@
         <v>0</v>
       </c>
       <c r="CN6" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="CO6" s="1">
         <v>0</v>
@@ -3834,7 +3792,7 @@
         <v>0</v>
       </c>
       <c r="CQ6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CR6" s="1">
         <v>0</v>
@@ -3843,7 +3801,7 @@
         <v>0</v>
       </c>
       <c r="CT6" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CU6" s="1">
         <v>0</v>
@@ -3852,7 +3810,7 @@
         <v>0</v>
       </c>
       <c r="CW6" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CX6" s="1">
         <v>0</v>
@@ -3864,7 +3822,7 @@
         <v>0</v>
       </c>
       <c r="DA6" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="DB6" s="1">
         <v>0</v>
@@ -4152,7 +4110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:200" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:200" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>0</v>
       </c>
@@ -4220,7 +4178,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X7" s="1">
         <v>0</v>
@@ -4232,182 +4190,182 @@
         <v>0</v>
       </c>
       <c r="AA7" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AB7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="1">
+        <v>5</v>
+      </c>
+      <c r="AF7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="1">
+        <v>8</v>
+      </c>
+      <c r="AK7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="1">
         <v>3</v>
       </c>
-      <c r="AC7" s="1">
+      <c r="AO7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY7" s="1">
+        <v>4</v>
+      </c>
+      <c r="AZ7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD7" s="1">
+        <v>8</v>
+      </c>
+      <c r="BE7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF7" s="1">
+        <v>7</v>
+      </c>
+      <c r="BG7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO7" s="1">
+        <v>7</v>
+      </c>
+      <c r="BP7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS7" s="1">
+        <v>1</v>
+      </c>
+      <c r="BT7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BV7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BX7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY7" s="1">
+        <v>4</v>
+      </c>
+      <c r="BZ7" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA7" s="1">
+        <v>0</v>
+      </c>
+      <c r="CB7" s="1">
+        <v>5</v>
+      </c>
+      <c r="CC7" s="1">
+        <v>0</v>
+      </c>
+      <c r="CD7" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE7" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF7" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG7" s="1">
         <v>3</v>
       </c>
-      <c r="AD7" s="1">
-        <v>3</v>
-      </c>
-      <c r="AE7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AX7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AZ7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BA7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BB7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BE7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BF7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BH7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BI7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BJ7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BK7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BL7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BM7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BN7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BO7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BP7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BQ7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BR7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BS7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BT7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BU7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BV7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BW7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BX7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BY7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BZ7" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA7" s="1">
-        <v>0</v>
-      </c>
-      <c r="CB7" s="1">
-        <v>0</v>
-      </c>
-      <c r="CC7" s="1">
-        <v>0</v>
-      </c>
-      <c r="CD7" s="1">
-        <v>0</v>
-      </c>
-      <c r="CE7" s="1">
-        <v>0</v>
-      </c>
-      <c r="CF7" s="1">
-        <v>0</v>
-      </c>
-      <c r="CG7" s="1">
-        <v>0</v>
-      </c>
       <c r="CH7" s="1">
         <v>0</v>
       </c>
@@ -4421,7 +4379,7 @@
         <v>0</v>
       </c>
       <c r="CL7" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="CM7" s="1">
         <v>0</v>
@@ -4430,7 +4388,7 @@
         <v>0</v>
       </c>
       <c r="CO7" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CP7" s="1">
         <v>0</v>
@@ -4466,7 +4424,7 @@
         <v>0</v>
       </c>
       <c r="DA7" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="DB7" s="1">
         <v>0</v>
@@ -4754,7 +4712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:200" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:200" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>0</v>
       </c>
@@ -4822,1143 +4780,1143 @@
         <v>3</v>
       </c>
       <c r="W8" s="1">
+        <v>0</v>
+      </c>
+      <c r="X8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>7</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="1">
+        <v>5</v>
+      </c>
+      <c r="AF8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU8" s="1">
+        <v>4</v>
+      </c>
+      <c r="AV8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD8" s="1">
+        <v>8</v>
+      </c>
+      <c r="BE8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG8" s="1">
+        <v>7</v>
+      </c>
+      <c r="BH8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM8" s="1">
+        <v>4</v>
+      </c>
+      <c r="BN8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR8" s="1">
+        <v>1</v>
+      </c>
+      <c r="BS8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BT8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BV8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BX8" s="1">
+        <v>5</v>
+      </c>
+      <c r="BY8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BZ8" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA8" s="1">
+        <v>0</v>
+      </c>
+      <c r="CB8" s="1">
+        <v>0</v>
+      </c>
+      <c r="CC8" s="1">
+        <v>0</v>
+      </c>
+      <c r="CD8" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE8" s="1">
+        <v>4</v>
+      </c>
+      <c r="CF8" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG8" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH8" s="1">
+        <v>0</v>
+      </c>
+      <c r="CI8" s="1">
+        <v>0</v>
+      </c>
+      <c r="CJ8" s="1">
+        <v>7</v>
+      </c>
+      <c r="CK8" s="1">
+        <v>0</v>
+      </c>
+      <c r="CL8" s="1">
+        <v>0</v>
+      </c>
+      <c r="CM8" s="1">
+        <v>0</v>
+      </c>
+      <c r="CN8" s="1">
+        <v>1</v>
+      </c>
+      <c r="CO8" s="1">
+        <v>0</v>
+      </c>
+      <c r="CP8" s="1">
+        <v>0</v>
+      </c>
+      <c r="CQ8" s="1">
+        <v>0</v>
+      </c>
+      <c r="CR8" s="1">
+        <v>0</v>
+      </c>
+      <c r="CS8" s="1">
+        <v>0</v>
+      </c>
+      <c r="CT8" s="1">
+        <v>0</v>
+      </c>
+      <c r="CU8" s="1">
+        <v>1</v>
+      </c>
+      <c r="CV8" s="1">
+        <v>0</v>
+      </c>
+      <c r="CW8" s="1">
+        <v>0</v>
+      </c>
+      <c r="CX8" s="1">
+        <v>4</v>
+      </c>
+      <c r="CY8" s="1">
+        <v>0</v>
+      </c>
+      <c r="CZ8" s="1">
+        <v>0</v>
+      </c>
+      <c r="DA8" s="1">
+        <v>8</v>
+      </c>
+      <c r="DB8" s="1">
+        <v>0</v>
+      </c>
+      <c r="DC8" s="1">
+        <v>0</v>
+      </c>
+      <c r="DD8" s="1">
+        <v>0</v>
+      </c>
+      <c r="DE8" s="1">
+        <v>0</v>
+      </c>
+      <c r="DF8" s="1">
+        <v>0</v>
+      </c>
+      <c r="DG8" s="1">
+        <v>0</v>
+      </c>
+      <c r="DH8" s="1">
+        <v>0</v>
+      </c>
+      <c r="DI8" s="1">
+        <v>0</v>
+      </c>
+      <c r="DJ8" s="1">
+        <v>0</v>
+      </c>
+      <c r="DK8" s="1">
+        <v>0</v>
+      </c>
+      <c r="DL8" s="1">
+        <v>0</v>
+      </c>
+      <c r="DM8" s="1">
+        <v>0</v>
+      </c>
+      <c r="DN8" s="1">
+        <v>0</v>
+      </c>
+      <c r="DO8" s="1">
+        <v>0</v>
+      </c>
+      <c r="DP8" s="1">
+        <v>0</v>
+      </c>
+      <c r="DQ8" s="1">
+        <v>0</v>
+      </c>
+      <c r="DR8" s="1">
+        <v>0</v>
+      </c>
+      <c r="DS8" s="1">
+        <v>0</v>
+      </c>
+      <c r="DT8" s="1">
+        <v>0</v>
+      </c>
+      <c r="DU8" s="1">
+        <v>0</v>
+      </c>
+      <c r="DV8" s="1">
+        <v>0</v>
+      </c>
+      <c r="DW8" s="1">
+        <v>0</v>
+      </c>
+      <c r="DX8" s="1">
+        <v>0</v>
+      </c>
+      <c r="DY8" s="1">
+        <v>0</v>
+      </c>
+      <c r="DZ8" s="1">
+        <v>0</v>
+      </c>
+      <c r="EA8" s="1">
+        <v>0</v>
+      </c>
+      <c r="EB8" s="1">
+        <v>0</v>
+      </c>
+      <c r="EC8" s="1">
+        <v>0</v>
+      </c>
+      <c r="ED8" s="1">
+        <v>0</v>
+      </c>
+      <c r="EE8" s="1">
+        <v>0</v>
+      </c>
+      <c r="EF8" s="1">
+        <v>0</v>
+      </c>
+      <c r="EG8" s="1">
+        <v>0</v>
+      </c>
+      <c r="EH8" s="1">
+        <v>0</v>
+      </c>
+      <c r="EI8" s="1">
+        <v>0</v>
+      </c>
+      <c r="EJ8" s="1">
+        <v>0</v>
+      </c>
+      <c r="EK8" s="1">
+        <v>0</v>
+      </c>
+      <c r="EL8" s="1">
+        <v>0</v>
+      </c>
+      <c r="EM8" s="1">
+        <v>0</v>
+      </c>
+      <c r="EN8" s="1">
+        <v>0</v>
+      </c>
+      <c r="EO8" s="1">
+        <v>0</v>
+      </c>
+      <c r="EP8" s="1">
+        <v>0</v>
+      </c>
+      <c r="EQ8" s="1">
+        <v>0</v>
+      </c>
+      <c r="ER8" s="1">
+        <v>0</v>
+      </c>
+      <c r="ES8" s="1">
+        <v>0</v>
+      </c>
+      <c r="ET8" s="1">
+        <v>0</v>
+      </c>
+      <c r="EU8" s="1">
+        <v>0</v>
+      </c>
+      <c r="EV8" s="1">
+        <v>0</v>
+      </c>
+      <c r="EW8" s="1">
+        <v>0</v>
+      </c>
+      <c r="EX8" s="1">
+        <v>0</v>
+      </c>
+      <c r="EY8" s="1">
+        <v>0</v>
+      </c>
+      <c r="EZ8" s="1">
+        <v>0</v>
+      </c>
+      <c r="FA8" s="1">
+        <v>0</v>
+      </c>
+      <c r="FB8" s="1">
+        <v>0</v>
+      </c>
+      <c r="FC8" s="1">
+        <v>0</v>
+      </c>
+      <c r="FD8" s="1">
+        <v>0</v>
+      </c>
+      <c r="FE8" s="1">
+        <v>0</v>
+      </c>
+      <c r="FF8" s="1">
+        <v>0</v>
+      </c>
+      <c r="FG8" s="1">
+        <v>0</v>
+      </c>
+      <c r="FH8" s="1">
+        <v>0</v>
+      </c>
+      <c r="FI8" s="1">
+        <v>0</v>
+      </c>
+      <c r="FJ8" s="1">
+        <v>0</v>
+      </c>
+      <c r="FK8" s="1">
+        <v>0</v>
+      </c>
+      <c r="FL8" s="1">
+        <v>0</v>
+      </c>
+      <c r="FM8" s="1">
+        <v>0</v>
+      </c>
+      <c r="FN8" s="1">
+        <v>0</v>
+      </c>
+      <c r="FO8" s="1">
+        <v>0</v>
+      </c>
+      <c r="FP8" s="1">
+        <v>0</v>
+      </c>
+      <c r="FQ8" s="1">
+        <v>0</v>
+      </c>
+      <c r="FR8" s="1">
+        <v>0</v>
+      </c>
+      <c r="FS8" s="1">
+        <v>0</v>
+      </c>
+      <c r="FT8" s="1">
+        <v>0</v>
+      </c>
+      <c r="FU8" s="1">
+        <v>0</v>
+      </c>
+      <c r="FV8" s="1">
+        <v>0</v>
+      </c>
+      <c r="FW8" s="1">
+        <v>0</v>
+      </c>
+      <c r="FX8" s="1">
+        <v>0</v>
+      </c>
+      <c r="FY8" s="1">
+        <v>0</v>
+      </c>
+      <c r="FZ8" s="1">
+        <v>0</v>
+      </c>
+      <c r="GA8" s="1">
+        <v>0</v>
+      </c>
+      <c r="GB8" s="1">
+        <v>0</v>
+      </c>
+      <c r="GC8" s="1">
+        <v>0</v>
+      </c>
+      <c r="GD8" s="1">
+        <v>0</v>
+      </c>
+      <c r="GE8" s="1">
+        <v>0</v>
+      </c>
+      <c r="GF8" s="1">
+        <v>0</v>
+      </c>
+      <c r="GG8" s="1">
+        <v>0</v>
+      </c>
+      <c r="GH8" s="1">
+        <v>0</v>
+      </c>
+      <c r="GI8" s="1">
+        <v>0</v>
+      </c>
+      <c r="GJ8" s="1">
+        <v>0</v>
+      </c>
+      <c r="GK8" s="1">
+        <v>0</v>
+      </c>
+      <c r="GL8" s="1">
+        <v>0</v>
+      </c>
+      <c r="GM8" s="1">
+        <v>0</v>
+      </c>
+      <c r="GN8" s="1">
+        <v>0</v>
+      </c>
+      <c r="GO8" s="1">
+        <v>0</v>
+      </c>
+      <c r="GP8" s="1">
+        <v>0</v>
+      </c>
+      <c r="GQ8" s="1">
+        <v>0</v>
+      </c>
+      <c r="GR8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:200" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>0</v>
+      </c>
+      <c r="P9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>4</v>
+      </c>
+      <c r="R9" s="1">
+        <v>0</v>
+      </c>
+      <c r="S9" s="1">
+        <v>0</v>
+      </c>
+      <c r="T9" s="1">
+        <v>0</v>
+      </c>
+      <c r="U9" s="1">
+        <v>0</v>
+      </c>
+      <c r="V9" s="1">
+        <v>1</v>
+      </c>
+      <c r="W9" s="1">
+        <v>0</v>
+      </c>
+      <c r="X9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>7</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="1">
+        <v>8</v>
+      </c>
+      <c r="AK9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="1">
+        <v>5</v>
+      </c>
+      <c r="AO9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV9" s="1">
         <v>3</v>
       </c>
-      <c r="X8" s="1">
+      <c r="AW9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD9" s="1">
+        <v>8</v>
+      </c>
+      <c r="BE9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH9" s="1">
+        <v>7</v>
+      </c>
+      <c r="BI9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL9" s="1">
+        <v>8</v>
+      </c>
+      <c r="BM9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR9" s="1">
         <v>3</v>
       </c>
-      <c r="Y8" s="1">
+      <c r="BS9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BT9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BV9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BX9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BZ9" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA9" s="1">
+        <v>5</v>
+      </c>
+      <c r="CB9" s="1">
+        <v>0</v>
+      </c>
+      <c r="CC9" s="1">
+        <v>0</v>
+      </c>
+      <c r="CD9" s="1">
         <v>3</v>
       </c>
-      <c r="Z8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK8" s="1">
+      <c r="CE9" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF9" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG9" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH9" s="1">
+        <v>0</v>
+      </c>
+      <c r="CI9" s="1">
         <v>3</v>
       </c>
-      <c r="AL8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AX8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AZ8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BA8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BB8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BE8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BF8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BH8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BI8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BJ8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BK8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BL8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BM8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BN8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BO8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BP8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BQ8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BR8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BS8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BT8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BU8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BV8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BW8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BX8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BY8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BZ8" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA8" s="1">
-        <v>0</v>
-      </c>
-      <c r="CB8" s="1">
-        <v>0</v>
-      </c>
-      <c r="CC8" s="1">
-        <v>0</v>
-      </c>
-      <c r="CD8" s="1">
-        <v>0</v>
-      </c>
-      <c r="CE8" s="1">
-        <v>0</v>
-      </c>
-      <c r="CF8" s="1">
-        <v>0</v>
-      </c>
-      <c r="CG8" s="1">
-        <v>0</v>
-      </c>
-      <c r="CH8" s="1">
-        <v>0</v>
-      </c>
-      <c r="CI8" s="1">
-        <v>0</v>
-      </c>
-      <c r="CJ8" s="1">
-        <v>0</v>
-      </c>
-      <c r="CK8" s="1">
-        <v>0</v>
-      </c>
-      <c r="CL8" s="1">
-        <v>0</v>
-      </c>
-      <c r="CM8" s="1">
-        <v>0</v>
-      </c>
-      <c r="CN8" s="1">
-        <v>0</v>
-      </c>
-      <c r="CO8" s="1">
-        <v>0</v>
-      </c>
-      <c r="CP8" s="1">
-        <v>0</v>
-      </c>
-      <c r="CQ8" s="1">
-        <v>0</v>
-      </c>
-      <c r="CR8" s="1">
-        <v>0</v>
-      </c>
-      <c r="CS8" s="1">
-        <v>0</v>
-      </c>
-      <c r="CT8" s="1">
-        <v>0</v>
-      </c>
-      <c r="CU8" s="1">
-        <v>0</v>
-      </c>
-      <c r="CV8" s="1">
-        <v>0</v>
-      </c>
-      <c r="CW8" s="1">
-        <v>0</v>
-      </c>
-      <c r="CX8" s="1">
-        <v>0</v>
-      </c>
-      <c r="CY8" s="1">
-        <v>0</v>
-      </c>
-      <c r="CZ8" s="1">
-        <v>0</v>
-      </c>
-      <c r="DA8" s="1">
-        <v>0</v>
-      </c>
-      <c r="DB8" s="1">
-        <v>0</v>
-      </c>
-      <c r="DC8" s="1">
-        <v>0</v>
-      </c>
-      <c r="DD8" s="1">
-        <v>0</v>
-      </c>
-      <c r="DE8" s="1">
-        <v>0</v>
-      </c>
-      <c r="DF8" s="1">
-        <v>0</v>
-      </c>
-      <c r="DG8" s="1">
-        <v>0</v>
-      </c>
-      <c r="DH8" s="1">
-        <v>0</v>
-      </c>
-      <c r="DI8" s="1">
-        <v>0</v>
-      </c>
-      <c r="DJ8" s="1">
-        <v>0</v>
-      </c>
-      <c r="DK8" s="1">
-        <v>0</v>
-      </c>
-      <c r="DL8" s="1">
-        <v>0</v>
-      </c>
-      <c r="DM8" s="1">
-        <v>0</v>
-      </c>
-      <c r="DN8" s="1">
-        <v>0</v>
-      </c>
-      <c r="DO8" s="1">
-        <v>0</v>
-      </c>
-      <c r="DP8" s="1">
-        <v>0</v>
-      </c>
-      <c r="DQ8" s="1">
-        <v>0</v>
-      </c>
-      <c r="DR8" s="1">
-        <v>0</v>
-      </c>
-      <c r="DS8" s="1">
-        <v>0</v>
-      </c>
-      <c r="DT8" s="1">
-        <v>0</v>
-      </c>
-      <c r="DU8" s="1">
-        <v>0</v>
-      </c>
-      <c r="DV8" s="1">
-        <v>0</v>
-      </c>
-      <c r="DW8" s="1">
-        <v>0</v>
-      </c>
-      <c r="DX8" s="1">
-        <v>0</v>
-      </c>
-      <c r="DY8" s="1">
-        <v>0</v>
-      </c>
-      <c r="DZ8" s="1">
-        <v>0</v>
-      </c>
-      <c r="EA8" s="1">
-        <v>0</v>
-      </c>
-      <c r="EB8" s="1">
-        <v>0</v>
-      </c>
-      <c r="EC8" s="1">
-        <v>0</v>
-      </c>
-      <c r="ED8" s="1">
-        <v>0</v>
-      </c>
-      <c r="EE8" s="1">
-        <v>0</v>
-      </c>
-      <c r="EF8" s="1">
-        <v>0</v>
-      </c>
-      <c r="EG8" s="1">
-        <v>0</v>
-      </c>
-      <c r="EH8" s="1">
-        <v>0</v>
-      </c>
-      <c r="EI8" s="1">
-        <v>0</v>
-      </c>
-      <c r="EJ8" s="1">
-        <v>0</v>
-      </c>
-      <c r="EK8" s="1">
-        <v>0</v>
-      </c>
-      <c r="EL8" s="1">
-        <v>0</v>
-      </c>
-      <c r="EM8" s="1">
-        <v>0</v>
-      </c>
-      <c r="EN8" s="1">
-        <v>0</v>
-      </c>
-      <c r="EO8" s="1">
-        <v>0</v>
-      </c>
-      <c r="EP8" s="1">
-        <v>0</v>
-      </c>
-      <c r="EQ8" s="1">
-        <v>0</v>
-      </c>
-      <c r="ER8" s="1">
-        <v>0</v>
-      </c>
-      <c r="ES8" s="1">
-        <v>0</v>
-      </c>
-      <c r="ET8" s="1">
-        <v>0</v>
-      </c>
-      <c r="EU8" s="1">
-        <v>0</v>
-      </c>
-      <c r="EV8" s="1">
-        <v>0</v>
-      </c>
-      <c r="EW8" s="1">
-        <v>0</v>
-      </c>
-      <c r="EX8" s="1">
-        <v>0</v>
-      </c>
-      <c r="EY8" s="1">
-        <v>0</v>
-      </c>
-      <c r="EZ8" s="1">
-        <v>0</v>
-      </c>
-      <c r="FA8" s="1">
-        <v>0</v>
-      </c>
-      <c r="FB8" s="1">
-        <v>0</v>
-      </c>
-      <c r="FC8" s="1">
-        <v>0</v>
-      </c>
-      <c r="FD8" s="1">
-        <v>0</v>
-      </c>
-      <c r="FE8" s="1">
-        <v>0</v>
-      </c>
-      <c r="FF8" s="1">
-        <v>0</v>
-      </c>
-      <c r="FG8" s="1">
-        <v>0</v>
-      </c>
-      <c r="FH8" s="1">
-        <v>0</v>
-      </c>
-      <c r="FI8" s="1">
-        <v>0</v>
-      </c>
-      <c r="FJ8" s="1">
-        <v>0</v>
-      </c>
-      <c r="FK8" s="1">
-        <v>0</v>
-      </c>
-      <c r="FL8" s="1">
-        <v>0</v>
-      </c>
-      <c r="FM8" s="1">
-        <v>0</v>
-      </c>
-      <c r="FN8" s="1">
-        <v>0</v>
-      </c>
-      <c r="FO8" s="1">
-        <v>0</v>
-      </c>
-      <c r="FP8" s="1">
-        <v>0</v>
-      </c>
-      <c r="FQ8" s="1">
-        <v>0</v>
-      </c>
-      <c r="FR8" s="1">
-        <v>0</v>
-      </c>
-      <c r="FS8" s="1">
-        <v>0</v>
-      </c>
-      <c r="FT8" s="1">
-        <v>0</v>
-      </c>
-      <c r="FU8" s="1">
-        <v>0</v>
-      </c>
-      <c r="FV8" s="1">
-        <v>0</v>
-      </c>
-      <c r="FW8" s="1">
-        <v>0</v>
-      </c>
-      <c r="FX8" s="1">
-        <v>0</v>
-      </c>
-      <c r="FY8" s="1">
-        <v>0</v>
-      </c>
-      <c r="FZ8" s="1">
-        <v>0</v>
-      </c>
-      <c r="GA8" s="1">
-        <v>0</v>
-      </c>
-      <c r="GB8" s="1">
-        <v>0</v>
-      </c>
-      <c r="GC8" s="1">
-        <v>0</v>
-      </c>
-      <c r="GD8" s="1">
-        <v>0</v>
-      </c>
-      <c r="GE8" s="1">
-        <v>0</v>
-      </c>
-      <c r="GF8" s="1">
-        <v>0</v>
-      </c>
-      <c r="GG8" s="1">
-        <v>0</v>
-      </c>
-      <c r="GH8" s="1">
-        <v>0</v>
-      </c>
-      <c r="GI8" s="1">
-        <v>0</v>
-      </c>
-      <c r="GJ8" s="1">
-        <v>0</v>
-      </c>
-      <c r="GK8" s="1">
-        <v>0</v>
-      </c>
-      <c r="GL8" s="1">
-        <v>0</v>
-      </c>
-      <c r="GM8" s="1">
-        <v>0</v>
-      </c>
-      <c r="GN8" s="1">
-        <v>0</v>
-      </c>
-      <c r="GO8" s="1">
-        <v>0</v>
-      </c>
-      <c r="GP8" s="1">
-        <v>0</v>
-      </c>
-      <c r="GQ8" s="1">
-        <v>0</v>
-      </c>
-      <c r="GR8" s="1">
+      <c r="CJ9" s="1">
+        <v>0</v>
+      </c>
+      <c r="CK9" s="1">
+        <v>0</v>
+      </c>
+      <c r="CL9" s="1">
+        <v>0</v>
+      </c>
+      <c r="CM9" s="1">
+        <v>0</v>
+      </c>
+      <c r="CN9" s="1">
+        <v>0</v>
+      </c>
+      <c r="CO9" s="1">
+        <v>0</v>
+      </c>
+      <c r="CP9" s="1">
+        <v>0</v>
+      </c>
+      <c r="CQ9" s="1">
+        <v>0</v>
+      </c>
+      <c r="CR9" s="1">
+        <v>0</v>
+      </c>
+      <c r="CS9" s="1">
+        <v>0</v>
+      </c>
+      <c r="CT9" s="1">
+        <v>0</v>
+      </c>
+      <c r="CU9" s="1">
+        <v>0</v>
+      </c>
+      <c r="CV9" s="1">
+        <v>0</v>
+      </c>
+      <c r="CW9" s="1">
+        <v>0</v>
+      </c>
+      <c r="CX9" s="1">
+        <v>0</v>
+      </c>
+      <c r="CY9" s="1">
+        <v>0</v>
+      </c>
+      <c r="CZ9" s="1">
+        <v>0</v>
+      </c>
+      <c r="DA9" s="1">
+        <v>8</v>
+      </c>
+      <c r="DB9" s="1">
+        <v>0</v>
+      </c>
+      <c r="DC9" s="1">
+        <v>0</v>
+      </c>
+      <c r="DD9" s="1">
+        <v>0</v>
+      </c>
+      <c r="DE9" s="1">
+        <v>0</v>
+      </c>
+      <c r="DF9" s="1">
+        <v>0</v>
+      </c>
+      <c r="DG9" s="1">
+        <v>0</v>
+      </c>
+      <c r="DH9" s="1">
+        <v>0</v>
+      </c>
+      <c r="DI9" s="1">
+        <v>0</v>
+      </c>
+      <c r="DJ9" s="1">
+        <v>0</v>
+      </c>
+      <c r="DK9" s="1">
+        <v>0</v>
+      </c>
+      <c r="DL9" s="1">
+        <v>0</v>
+      </c>
+      <c r="DM9" s="1">
+        <v>0</v>
+      </c>
+      <c r="DN9" s="1">
+        <v>0</v>
+      </c>
+      <c r="DO9" s="1">
+        <v>0</v>
+      </c>
+      <c r="DP9" s="1">
+        <v>0</v>
+      </c>
+      <c r="DQ9" s="1">
+        <v>0</v>
+      </c>
+      <c r="DR9" s="1">
+        <v>0</v>
+      </c>
+      <c r="DS9" s="1">
+        <v>0</v>
+      </c>
+      <c r="DT9" s="1">
+        <v>0</v>
+      </c>
+      <c r="DU9" s="1">
+        <v>0</v>
+      </c>
+      <c r="DV9" s="1">
+        <v>0</v>
+      </c>
+      <c r="DW9" s="1">
+        <v>0</v>
+      </c>
+      <c r="DX9" s="1">
+        <v>0</v>
+      </c>
+      <c r="DY9" s="1">
+        <v>0</v>
+      </c>
+      <c r="DZ9" s="1">
+        <v>0</v>
+      </c>
+      <c r="EA9" s="1">
+        <v>0</v>
+      </c>
+      <c r="EB9" s="1">
+        <v>0</v>
+      </c>
+      <c r="EC9" s="1">
+        <v>0</v>
+      </c>
+      <c r="ED9" s="1">
+        <v>0</v>
+      </c>
+      <c r="EE9" s="1">
+        <v>0</v>
+      </c>
+      <c r="EF9" s="1">
+        <v>0</v>
+      </c>
+      <c r="EG9" s="1">
+        <v>0</v>
+      </c>
+      <c r="EH9" s="1">
+        <v>0</v>
+      </c>
+      <c r="EI9" s="1">
+        <v>0</v>
+      </c>
+      <c r="EJ9" s="1">
+        <v>0</v>
+      </c>
+      <c r="EK9" s="1">
+        <v>0</v>
+      </c>
+      <c r="EL9" s="1">
+        <v>0</v>
+      </c>
+      <c r="EM9" s="1">
+        <v>0</v>
+      </c>
+      <c r="EN9" s="1">
+        <v>0</v>
+      </c>
+      <c r="EO9" s="1">
+        <v>0</v>
+      </c>
+      <c r="EP9" s="1">
+        <v>0</v>
+      </c>
+      <c r="EQ9" s="1">
+        <v>0</v>
+      </c>
+      <c r="ER9" s="1">
+        <v>0</v>
+      </c>
+      <c r="ES9" s="1">
+        <v>0</v>
+      </c>
+      <c r="ET9" s="1">
+        <v>0</v>
+      </c>
+      <c r="EU9" s="1">
+        <v>0</v>
+      </c>
+      <c r="EV9" s="1">
+        <v>0</v>
+      </c>
+      <c r="EW9" s="1">
+        <v>0</v>
+      </c>
+      <c r="EX9" s="1">
+        <v>0</v>
+      </c>
+      <c r="EY9" s="1">
+        <v>0</v>
+      </c>
+      <c r="EZ9" s="1">
+        <v>0</v>
+      </c>
+      <c r="FA9" s="1">
+        <v>0</v>
+      </c>
+      <c r="FB9" s="1">
+        <v>0</v>
+      </c>
+      <c r="FC9" s="1">
+        <v>0</v>
+      </c>
+      <c r="FD9" s="1">
+        <v>0</v>
+      </c>
+      <c r="FE9" s="1">
+        <v>0</v>
+      </c>
+      <c r="FF9" s="1">
+        <v>0</v>
+      </c>
+      <c r="FG9" s="1">
+        <v>0</v>
+      </c>
+      <c r="FH9" s="1">
+        <v>0</v>
+      </c>
+      <c r="FI9" s="1">
+        <v>0</v>
+      </c>
+      <c r="FJ9" s="1">
+        <v>0</v>
+      </c>
+      <c r="FK9" s="1">
+        <v>0</v>
+      </c>
+      <c r="FL9" s="1">
+        <v>0</v>
+      </c>
+      <c r="FM9" s="1">
+        <v>0</v>
+      </c>
+      <c r="FN9" s="1">
+        <v>0</v>
+      </c>
+      <c r="FO9" s="1">
+        <v>0</v>
+      </c>
+      <c r="FP9" s="1">
+        <v>0</v>
+      </c>
+      <c r="FQ9" s="1">
+        <v>0</v>
+      </c>
+      <c r="FR9" s="1">
+        <v>0</v>
+      </c>
+      <c r="FS9" s="1">
+        <v>0</v>
+      </c>
+      <c r="FT9" s="1">
+        <v>0</v>
+      </c>
+      <c r="FU9" s="1">
+        <v>0</v>
+      </c>
+      <c r="FV9" s="1">
+        <v>0</v>
+      </c>
+      <c r="FW9" s="1">
+        <v>0</v>
+      </c>
+      <c r="FX9" s="1">
+        <v>0</v>
+      </c>
+      <c r="FY9" s="1">
+        <v>0</v>
+      </c>
+      <c r="FZ9" s="1">
+        <v>0</v>
+      </c>
+      <c r="GA9" s="1">
+        <v>0</v>
+      </c>
+      <c r="GB9" s="1">
+        <v>0</v>
+      </c>
+      <c r="GC9" s="1">
+        <v>0</v>
+      </c>
+      <c r="GD9" s="1">
+        <v>0</v>
+      </c>
+      <c r="GE9" s="1">
+        <v>0</v>
+      </c>
+      <c r="GF9" s="1">
+        <v>0</v>
+      </c>
+      <c r="GG9" s="1">
+        <v>0</v>
+      </c>
+      <c r="GH9" s="1">
+        <v>0</v>
+      </c>
+      <c r="GI9" s="1">
+        <v>0</v>
+      </c>
+      <c r="GJ9" s="1">
+        <v>0</v>
+      </c>
+      <c r="GK9" s="1">
+        <v>0</v>
+      </c>
+      <c r="GL9" s="1">
+        <v>0</v>
+      </c>
+      <c r="GM9" s="1">
+        <v>0</v>
+      </c>
+      <c r="GN9" s="1">
+        <v>0</v>
+      </c>
+      <c r="GO9" s="1">
+        <v>0</v>
+      </c>
+      <c r="GP9" s="1">
+        <v>0</v>
+      </c>
+      <c r="GQ9" s="1">
+        <v>0</v>
+      </c>
+      <c r="GR9" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:200" x14ac:dyDescent="0.15">
-      <c r="A9" s="1">
-        <v>0</v>
-      </c>
-      <c r="B9" s="1">
-        <v>0</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0</v>
-      </c>
-      <c r="I9" s="1">
-        <v>0</v>
-      </c>
-      <c r="J9" s="1">
-        <v>0</v>
-      </c>
-      <c r="K9" s="1">
-        <v>0</v>
-      </c>
-      <c r="L9" s="1">
-        <v>0</v>
-      </c>
-      <c r="M9" s="1">
-        <v>0</v>
-      </c>
-      <c r="N9" s="1">
-        <v>0</v>
-      </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="1">
-        <v>0</v>
-      </c>
-      <c r="R9" s="1">
-        <v>0</v>
-      </c>
-      <c r="S9" s="1">
-        <v>0</v>
-      </c>
-      <c r="T9" s="1">
-        <v>0</v>
-      </c>
-      <c r="U9" s="1">
-        <v>0</v>
-      </c>
-      <c r="V9" s="1">
-        <v>0</v>
-      </c>
-      <c r="W9" s="1">
-        <v>0</v>
-      </c>
-      <c r="X9" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AX9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AZ9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BA9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BB9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BE9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BF9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BH9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BI9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BJ9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BK9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BL9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BM9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BN9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BO9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BP9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BQ9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BR9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BS9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BT9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BU9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BV9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BW9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BX9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BY9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BZ9" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA9" s="1">
-        <v>0</v>
-      </c>
-      <c r="CB9" s="1">
-        <v>0</v>
-      </c>
-      <c r="CC9" s="1">
-        <v>0</v>
-      </c>
-      <c r="CD9" s="1">
-        <v>0</v>
-      </c>
-      <c r="CE9" s="1">
-        <v>0</v>
-      </c>
-      <c r="CF9" s="1">
-        <v>0</v>
-      </c>
-      <c r="CG9" s="1">
-        <v>0</v>
-      </c>
-      <c r="CH9" s="1">
-        <v>0</v>
-      </c>
-      <c r="CI9" s="1">
-        <v>0</v>
-      </c>
-      <c r="CJ9" s="1">
-        <v>0</v>
-      </c>
-      <c r="CK9" s="1">
-        <v>0</v>
-      </c>
-      <c r="CL9" s="1">
-        <v>0</v>
-      </c>
-      <c r="CM9" s="1">
-        <v>0</v>
-      </c>
-      <c r="CN9" s="1">
-        <v>0</v>
-      </c>
-      <c r="CO9" s="1">
-        <v>0</v>
-      </c>
-      <c r="CP9" s="1">
-        <v>0</v>
-      </c>
-      <c r="CQ9" s="1">
-        <v>0</v>
-      </c>
-      <c r="CR9" s="1">
-        <v>0</v>
-      </c>
-      <c r="CS9" s="1">
-        <v>0</v>
-      </c>
-      <c r="CT9" s="1">
-        <v>0</v>
-      </c>
-      <c r="CU9" s="1">
-        <v>0</v>
-      </c>
-      <c r="CV9" s="1">
-        <v>0</v>
-      </c>
-      <c r="CW9" s="1">
-        <v>0</v>
-      </c>
-      <c r="CX9" s="1">
-        <v>0</v>
-      </c>
-      <c r="CY9" s="1">
-        <v>0</v>
-      </c>
-      <c r="CZ9" s="1">
-        <v>0</v>
-      </c>
-      <c r="DA9" s="1">
-        <v>0</v>
-      </c>
-      <c r="DB9" s="1">
-        <v>0</v>
-      </c>
-      <c r="DC9" s="1">
-        <v>0</v>
-      </c>
-      <c r="DD9" s="1">
-        <v>0</v>
-      </c>
-      <c r="DE9" s="1">
-        <v>0</v>
-      </c>
-      <c r="DF9" s="1">
-        <v>0</v>
-      </c>
-      <c r="DG9" s="1">
-        <v>0</v>
-      </c>
-      <c r="DH9" s="1">
-        <v>0</v>
-      </c>
-      <c r="DI9" s="1">
-        <v>0</v>
-      </c>
-      <c r="DJ9" s="1">
-        <v>0</v>
-      </c>
-      <c r="DK9" s="1">
-        <v>0</v>
-      </c>
-      <c r="DL9" s="1">
-        <v>0</v>
-      </c>
-      <c r="DM9" s="1">
-        <v>0</v>
-      </c>
-      <c r="DN9" s="1">
-        <v>0</v>
-      </c>
-      <c r="DO9" s="1">
-        <v>0</v>
-      </c>
-      <c r="DP9" s="1">
-        <v>0</v>
-      </c>
-      <c r="DQ9" s="1">
-        <v>0</v>
-      </c>
-      <c r="DR9" s="1">
-        <v>0</v>
-      </c>
-      <c r="DS9" s="1">
-        <v>0</v>
-      </c>
-      <c r="DT9" s="1">
-        <v>0</v>
-      </c>
-      <c r="DU9" s="1">
-        <v>0</v>
-      </c>
-      <c r="DV9" s="1">
-        <v>0</v>
-      </c>
-      <c r="DW9" s="1">
-        <v>0</v>
-      </c>
-      <c r="DX9" s="1">
-        <v>0</v>
-      </c>
-      <c r="DY9" s="1">
-        <v>0</v>
-      </c>
-      <c r="DZ9" s="1">
-        <v>0</v>
-      </c>
-      <c r="EA9" s="1">
-        <v>0</v>
-      </c>
-      <c r="EB9" s="1">
-        <v>0</v>
-      </c>
-      <c r="EC9" s="1">
-        <v>0</v>
-      </c>
-      <c r="ED9" s="1">
-        <v>0</v>
-      </c>
-      <c r="EE9" s="1">
-        <v>0</v>
-      </c>
-      <c r="EF9" s="1">
-        <v>0</v>
-      </c>
-      <c r="EG9" s="1">
-        <v>0</v>
-      </c>
-      <c r="EH9" s="1">
-        <v>0</v>
-      </c>
-      <c r="EI9" s="1">
-        <v>0</v>
-      </c>
-      <c r="EJ9" s="1">
-        <v>0</v>
-      </c>
-      <c r="EK9" s="1">
-        <v>0</v>
-      </c>
-      <c r="EL9" s="1">
-        <v>0</v>
-      </c>
-      <c r="EM9" s="1">
-        <v>0</v>
-      </c>
-      <c r="EN9" s="1">
-        <v>0</v>
-      </c>
-      <c r="EO9" s="1">
-        <v>0</v>
-      </c>
-      <c r="EP9" s="1">
-        <v>0</v>
-      </c>
-      <c r="EQ9" s="1">
-        <v>0</v>
-      </c>
-      <c r="ER9" s="1">
-        <v>0</v>
-      </c>
-      <c r="ES9" s="1">
-        <v>0</v>
-      </c>
-      <c r="ET9" s="1">
-        <v>0</v>
-      </c>
-      <c r="EU9" s="1">
-        <v>0</v>
-      </c>
-      <c r="EV9" s="1">
-        <v>0</v>
-      </c>
-      <c r="EW9" s="1">
-        <v>0</v>
-      </c>
-      <c r="EX9" s="1">
-        <v>0</v>
-      </c>
-      <c r="EY9" s="1">
-        <v>0</v>
-      </c>
-      <c r="EZ9" s="1">
-        <v>0</v>
-      </c>
-      <c r="FA9" s="1">
-        <v>0</v>
-      </c>
-      <c r="FB9" s="1">
-        <v>0</v>
-      </c>
-      <c r="FC9" s="1">
-        <v>0</v>
-      </c>
-      <c r="FD9" s="1">
-        <v>0</v>
-      </c>
-      <c r="FE9" s="1">
-        <v>0</v>
-      </c>
-      <c r="FF9" s="1">
-        <v>0</v>
-      </c>
-      <c r="FG9" s="1">
-        <v>0</v>
-      </c>
-      <c r="FH9" s="1">
-        <v>0</v>
-      </c>
-      <c r="FI9" s="1">
-        <v>0</v>
-      </c>
-      <c r="FJ9" s="1">
-        <v>0</v>
-      </c>
-      <c r="FK9" s="1">
-        <v>0</v>
-      </c>
-      <c r="FL9" s="1">
-        <v>0</v>
-      </c>
-      <c r="FM9" s="1">
-        <v>0</v>
-      </c>
-      <c r="FN9" s="1">
-        <v>0</v>
-      </c>
-      <c r="FO9" s="1">
-        <v>0</v>
-      </c>
-      <c r="FP9" s="1">
-        <v>0</v>
-      </c>
-      <c r="FQ9" s="1">
-        <v>0</v>
-      </c>
-      <c r="FR9" s="1">
-        <v>0</v>
-      </c>
-      <c r="FS9" s="1">
-        <v>0</v>
-      </c>
-      <c r="FT9" s="1">
-        <v>0</v>
-      </c>
-      <c r="FU9" s="1">
-        <v>0</v>
-      </c>
-      <c r="FV9" s="1">
-        <v>0</v>
-      </c>
-      <c r="FW9" s="1">
-        <v>0</v>
-      </c>
-      <c r="FX9" s="1">
-        <v>0</v>
-      </c>
-      <c r="FY9" s="1">
-        <v>0</v>
-      </c>
-      <c r="FZ9" s="1">
-        <v>0</v>
-      </c>
-      <c r="GA9" s="1">
-        <v>0</v>
-      </c>
-      <c r="GB9" s="1">
-        <v>0</v>
-      </c>
-      <c r="GC9" s="1">
-        <v>0</v>
-      </c>
-      <c r="GD9" s="1">
-        <v>0</v>
-      </c>
-      <c r="GE9" s="1">
-        <v>0</v>
-      </c>
-      <c r="GF9" s="1">
-        <v>0</v>
-      </c>
-      <c r="GG9" s="1">
-        <v>0</v>
-      </c>
-      <c r="GH9" s="1">
-        <v>0</v>
-      </c>
-      <c r="GI9" s="1">
-        <v>0</v>
-      </c>
-      <c r="GJ9" s="1">
-        <v>0</v>
-      </c>
-      <c r="GK9" s="1">
-        <v>0</v>
-      </c>
-      <c r="GL9" s="1">
-        <v>0</v>
-      </c>
-      <c r="GM9" s="1">
-        <v>0</v>
-      </c>
-      <c r="GN9" s="1">
-        <v>0</v>
-      </c>
-      <c r="GO9" s="1">
-        <v>0</v>
-      </c>
-      <c r="GP9" s="1">
-        <v>0</v>
-      </c>
-      <c r="GQ9" s="1">
-        <v>0</v>
-      </c>
-      <c r="GR9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:200" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:200" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>0</v>
       </c>
@@ -6020,7 +5978,7 @@
         <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V10" s="1">
         <v>0</v>
@@ -6056,55 +6014,55 @@
         <v>0</v>
       </c>
       <c r="AG10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="1">
+        <v>5</v>
+      </c>
+      <c r="AI10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN10" s="1">
         <v>3</v>
       </c>
-      <c r="AH10" s="1">
+      <c r="AO10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP10" s="1">
+        <v>2</v>
+      </c>
+      <c r="AQ10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU10" s="1">
+        <v>4</v>
+      </c>
+      <c r="AV10" s="1">
         <v>3</v>
       </c>
-      <c r="AI10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV10" s="1">
-        <v>0</v>
-      </c>
       <c r="AW10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX10" s="1">
         <v>0</v>
@@ -6161,13 +6119,13 @@
         <v>0</v>
       </c>
       <c r="BP10" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BQ10" s="1">
         <v>0</v>
       </c>
       <c r="BR10" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BS10" s="1">
         <v>0</v>
@@ -6179,7 +6137,7 @@
         <v>0</v>
       </c>
       <c r="BV10" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BW10" s="1">
         <v>0</v>
@@ -6188,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="BY10" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BZ10" s="1">
         <v>0</v>
@@ -6197,7 +6155,7 @@
         <v>0</v>
       </c>
       <c r="CB10" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="CC10" s="1">
         <v>0</v>
@@ -6209,13 +6167,13 @@
         <v>0</v>
       </c>
       <c r="CF10" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CG10" s="1">
         <v>0</v>
       </c>
       <c r="CH10" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="CI10" s="1">
         <v>0</v>
@@ -6224,7 +6182,7 @@
         <v>0</v>
       </c>
       <c r="CK10" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="CL10" s="1">
         <v>0</v>
@@ -6242,7 +6200,7 @@
         <v>0</v>
       </c>
       <c r="CQ10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CR10" s="1">
         <v>0</v>
@@ -6257,7 +6215,7 @@
         <v>0</v>
       </c>
       <c r="CV10" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CW10" s="1">
         <v>0</v>
@@ -6266,13 +6224,13 @@
         <v>0</v>
       </c>
       <c r="CY10" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CZ10" s="1">
         <v>0</v>
       </c>
       <c r="DA10" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="DB10" s="1">
         <v>0</v>
@@ -6563,32 +6521,36 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:GR10">
-    <cfRule type="cellIs" dxfId="20" priority="11" operator="equal">
-      <formula>3</formula>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="between">
+      <formula>7</formula>
+      <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="12" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="13" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="between">
       <formula>4</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="1" operator="between">
-      <formula>7</formula>
-      <formula>7</formula>
+    <cfRule type="cellIs" dxfId="2" priority="12" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="13" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="14" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="between">
+      <formula>8</formula>
+      <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="15" priority="3" operator="between">
+  <conditionalFormatting sqref="A1:XFD32 A33:EO33 EQ33:XFD33 A34:XFD1048576">
+    <cfRule type="cellIs" dxfId="14" priority="3" operator="between">
+      <formula>6</formula>
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="4" operator="between">
       <formula>5</formula>
       <formula>5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="2" operator="between">
-      <formula>6</formula>
-      <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Torch runner 2/Torch runner 2/Stage03.xlsx
+++ b/Torch runner 2/Torch runner 2/Stage03.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\riri\Source\Repos\kanataD\Torch runner 2\Torch runner 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Source\Repos\kanataD\Torch runner 2\Torch runner 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11616"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11610"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -90,49 +90,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <fill>
         <patternFill>
@@ -144,6 +102,13 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -179,20 +144,6 @@
       <fill>
         <patternFill>
           <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -474,31 +425,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:GR10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AV1" workbookViewId="0">
-      <selection activeCell="CH6" sqref="CH6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="CU10" sqref="CU10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="27" width="2.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="27" width="2.5" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="3" bestFit="1" customWidth="1"/>
-    <col min="29" max="31" width="2.44140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="31" width="2.5" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="3" bestFit="1" customWidth="1"/>
-    <col min="33" max="34" width="2.44140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="3.44140625" bestFit="1" customWidth="1"/>
-    <col min="36" max="58" width="2.44140625" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="3.44140625" bestFit="1" customWidth="1"/>
-    <col min="60" max="61" width="2.44140625" bestFit="1" customWidth="1"/>
-    <col min="62" max="64" width="3.44140625" bestFit="1" customWidth="1"/>
-    <col min="65" max="137" width="2.44140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="36" max="58" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="60" max="61" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="62" max="64" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="65" max="137" width="2.5" bestFit="1" customWidth="1"/>
     <col min="138" max="182" width="3" bestFit="1" customWidth="1"/>
-    <col min="183" max="184" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="183" max="184" width="3.5" bestFit="1" customWidth="1"/>
     <col min="185" max="186" width="3" bestFit="1" customWidth="1"/>
-    <col min="187" max="188" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="187" max="188" width="3.5" bestFit="1" customWidth="1"/>
     <col min="189" max="200" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:200" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:200" x14ac:dyDescent="0.15">
       <c r="A1" s="1">
         <v>0</v>
       </c>
@@ -1100,7 +1051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:200" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:200" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1702,7 +1653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:200" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:200" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -2304,7 +2255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:200" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:200" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -2906,7 +2857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:200" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:200" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>0</v>
       </c>
@@ -3508,7 +3459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:200" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:200" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>0</v>
       </c>
@@ -3588,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AA6" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AB6" s="1">
         <v>5</v>
@@ -3675,13 +3626,13 @@
         <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BE6" s="1">
         <v>0</v>
       </c>
       <c r="BF6" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BG6" s="1">
         <v>0</v>
@@ -3708,7 +3659,7 @@
         <v>0</v>
       </c>
       <c r="BO6" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BP6" s="1">
         <v>0</v>
@@ -3780,7 +3731,7 @@
         <v>0</v>
       </c>
       <c r="CM6" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="CN6" s="1">
         <v>5</v>
@@ -3801,7 +3752,7 @@
         <v>0</v>
       </c>
       <c r="CT6" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CU6" s="1">
         <v>0</v>
@@ -4110,7 +4061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:200" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:200" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>0</v>
       </c>
@@ -4283,11 +4234,11 @@
         <v>0</v>
       </c>
       <c r="BF7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG7" s="1">
         <v>7</v>
       </c>
-      <c r="BG7" s="1">
-        <v>0</v>
-      </c>
       <c r="BH7" s="1">
         <v>0</v>
       </c>
@@ -4310,7 +4261,7 @@
         <v>0</v>
       </c>
       <c r="BO7" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="BP7" s="1">
         <v>0</v>
@@ -4412,7 +4363,7 @@
         <v>0</v>
       </c>
       <c r="CW7" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CX7" s="1">
         <v>0</v>
@@ -4712,7 +4663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:200" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:200" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>0</v>
       </c>
@@ -4888,10 +4839,10 @@
         <v>0</v>
       </c>
       <c r="BG8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH8" s="1">
         <v>7</v>
-      </c>
-      <c r="BH8" s="1">
-        <v>0</v>
       </c>
       <c r="BI8" s="1">
         <v>0</v>
@@ -5014,10 +4965,10 @@
         <v>0</v>
       </c>
       <c r="CW8" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CX8" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CY8" s="1">
         <v>0</v>
@@ -5314,7 +5265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:200" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:200" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>0</v>
       </c>
@@ -5394,7 +5345,7 @@
         <v>4</v>
       </c>
       <c r="AA9" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AB9" s="1">
         <v>0</v>
@@ -5433,7 +5384,7 @@
         <v>0</v>
       </c>
       <c r="AN9" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
         <v>0</v>
@@ -5481,7 +5432,7 @@
         <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="BE9" s="1">
         <v>0</v>
@@ -5493,7 +5444,7 @@
         <v>0</v>
       </c>
       <c r="BH9" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
         <v>0</v>
@@ -5616,7 +5567,7 @@
         <v>0</v>
       </c>
       <c r="CW9" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CX9" s="1">
         <v>0</v>
@@ -5916,7 +5867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:200" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:200" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>0</v>
       </c>
@@ -6215,16 +6166,16 @@
         <v>0</v>
       </c>
       <c r="CV10" s="1">
+        <v>0</v>
+      </c>
+      <c r="CW10" s="1">
         <v>4</v>
       </c>
-      <c r="CW10" s="1">
-        <v>0</v>
-      </c>
       <c r="CX10" s="1">
         <v>0</v>
       </c>
       <c r="CY10" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CZ10" s="1">
         <v>0</v>
@@ -6521,34 +6472,34 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:GR10">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="between">
       <formula>7</formula>
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="between">
       <formula>4</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="12" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="13" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="14" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="between">
       <formula>8</formula>
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD32 A33:EO33 EQ33:XFD33 A34:XFD1048576">
-    <cfRule type="cellIs" dxfId="14" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="between">
       <formula>6</formula>
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="between">
       <formula>5</formula>
       <formula>5</formula>
     </cfRule>

--- a/Torch runner 2/Torch runner 2/Stage03.xlsx
+++ b/Torch runner 2/Torch runner 2/Stage03.xlsx
@@ -426,7 +426,7 @@
   <dimension ref="A1:GR10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="CU10" sqref="CU10"/>
+      <selection activeCell="AZ11" sqref="AZ11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5992,7 +5992,7 @@
         <v>0</v>
       </c>
       <c r="AP10" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AQ10" s="1">
         <v>0</v>

--- a/Torch runner 2/Torch runner 2/Stage03.xlsx
+++ b/Torch runner 2/Torch runner 2/Stage03.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Source\Repos\kanataD\Torch runner 2\Torch runner 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Source\Repos\Torch runer\Torch runner 2\Torch runner 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -79,18 +79,21 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="88">
     <dxf>
       <fill>
         <patternFill>
@@ -108,6 +111,41 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="9" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
@@ -115,6 +153,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
@@ -144,6 +196,517 @@
       <fill>
         <patternFill>
           <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -425,8 +988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:GR10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AZ11" sqref="AZ11"/>
+    <sheetView tabSelected="1" topLeftCell="BQ1" workbookViewId="0">
+      <selection activeCell="DO12" sqref="DO12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3755,16 +4318,16 @@
         <v>0</v>
       </c>
       <c r="CU6" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CV6" s="1">
         <v>0</v>
       </c>
-      <c r="CW6" s="1">
-        <v>4</v>
+      <c r="CW6" s="2">
+        <v>0</v>
       </c>
       <c r="CX6" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="CY6" s="1">
         <v>0</v>
@@ -3772,8 +4335,8 @@
       <c r="CZ6" s="1">
         <v>0</v>
       </c>
-      <c r="DA6" s="1">
-        <v>8</v>
+      <c r="DA6" s="2">
+        <v>0</v>
       </c>
       <c r="DB6" s="1">
         <v>0</v>
@@ -4357,16 +4920,16 @@
         <v>0</v>
       </c>
       <c r="CU7" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CV7" s="1">
         <v>0</v>
       </c>
-      <c r="CW7" s="1">
-        <v>4</v>
+      <c r="CW7" s="2">
+        <v>0</v>
       </c>
       <c r="CX7" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="CY7" s="1">
         <v>0</v>
@@ -4374,8 +4937,8 @@
       <c r="CZ7" s="1">
         <v>0</v>
       </c>
-      <c r="DA7" s="1">
-        <v>8</v>
+      <c r="DA7" s="2">
+        <v>0</v>
       </c>
       <c r="DB7" s="1">
         <v>0</v>
@@ -4953,22 +5516,22 @@
         <v>0</v>
       </c>
       <c r="CS8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CT8" s="1">
         <v>0</v>
       </c>
       <c r="CU8" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="CV8" s="1">
         <v>0</v>
       </c>
-      <c r="CW8" s="1">
-        <v>4</v>
+      <c r="CW8" s="2">
+        <v>0</v>
       </c>
       <c r="CX8" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="CY8" s="1">
         <v>0</v>
@@ -4976,8 +5539,8 @@
       <c r="CZ8" s="1">
         <v>0</v>
       </c>
-      <c r="DA8" s="1">
-        <v>8</v>
+      <c r="DA8" s="2">
+        <v>0</v>
       </c>
       <c r="DB8" s="1">
         <v>0</v>
@@ -5561,16 +6124,16 @@
         <v>0</v>
       </c>
       <c r="CU9" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CV9" s="1">
         <v>0</v>
       </c>
-      <c r="CW9" s="1">
-        <v>4</v>
+      <c r="CW9" s="2">
+        <v>0</v>
       </c>
       <c r="CX9" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="CY9" s="1">
         <v>0</v>
@@ -5578,8 +6141,8 @@
       <c r="CZ9" s="1">
         <v>0</v>
       </c>
-      <c r="DA9" s="1">
-        <v>8</v>
+      <c r="DA9" s="2">
+        <v>0</v>
       </c>
       <c r="DB9" s="1">
         <v>0</v>
@@ -6163,16 +6726,16 @@
         <v>0</v>
       </c>
       <c r="CU10" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CV10" s="1">
         <v>0</v>
       </c>
-      <c r="CW10" s="1">
-        <v>4</v>
+      <c r="CW10" s="2">
+        <v>0</v>
       </c>
       <c r="CX10" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="CY10" s="1">
         <v>0</v>
@@ -6180,8 +6743,8 @@
       <c r="CZ10" s="1">
         <v>0</v>
       </c>
-      <c r="DA10" s="1">
-        <v>8</v>
+      <c r="DA10" s="2">
+        <v>0</v>
       </c>
       <c r="DB10" s="1">
         <v>0</v>
@@ -6472,34 +7035,34 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:GR10">
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="47" priority="1" operator="between">
+      <formula>8</formula>
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="2" operator="between">
       <formula>7</formula>
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="45" priority="5" operator="between">
       <formula>4</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="12" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="13" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="14" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="between">
-      <formula>8</formula>
-      <formula>8</formula>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:XFD32 A33:EO33 EQ33:XFD33 A34:XFD1048576">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="between">
+  <conditionalFormatting sqref="A33:EO33 EQ33:XFD33 A34:XFD1048576 A1:XFD32">
+    <cfRule type="cellIs" dxfId="41" priority="3" operator="between">
       <formula>6</formula>
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="40" priority="4" operator="between">
       <formula>5</formula>
       <formula>5</formula>
     </cfRule>
